--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365982.7428334087</v>
+        <v>457896.9318625616</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9321424.560661636</v>
+        <v>8666268.959347751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8366664.17278847</v>
+        <v>8612872.176815497</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.8405921356984</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.07008646612813</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.53696330591358</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040635</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
     </row>
     <row r="5">
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.017299287606</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.1725371760949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>106.5671510266614</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>83.41747001683318</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1035,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>52.21594625443479</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.41405905276496</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.02307145248658162</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>165.1725371760947</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="T10" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>32.97988876732504</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5582063813129</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.1261226415114</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>66.11485303372851</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>148.478915514736</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.01262040724721</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3400163777887</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>30.54219944928975</v>
+        <v>18.81721868247899</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>20.84550497521012</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3113116019144</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.9382845759052</v>
+        <v>95.44336989065596</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>336.1680648472552</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>212.3287202925336</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1692,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>12.917518475752</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851275</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.1524414707</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3113116019144</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>14.57567088453485</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>99.59933623926882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>68.28762422566659</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1904,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>115.0138334144186</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>195.2768636342815</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>318.8808837491591</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>43.83162758969803</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2208,7 +2210,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.3866485609005</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>73.08937855085976</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>137.9991088190098</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>26.89854620008782</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2372,7 +2374,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>63.36332646735467</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>28.03004253565322</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>119.930740786684</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2612,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>106.0918933795946</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.7614152959627</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159607</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2922,7 +2924,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U30" t="n">
         <v>225.7871683969286</v>
@@ -2934,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>81.77200357366344</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>127.6216357996079</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>256.7273523546845</v>
       </c>
       <c r="H32" t="n">
-        <v>184.1739595194687</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U33" t="n">
         <v>225.7871683969286</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>30.98609823994668</v>
       </c>
       <c r="I34" t="n">
-        <v>5.546312764596341</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>116.2516724938251</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>271.775411412472</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3393,7 +3395,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3427,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>45.02091734557739</v>
+        <v>174.0445447513306</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3503,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>387.6625504680448</v>
       </c>
       <c r="H38" t="n">
-        <v>282.3939120001642</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>115.0138334144184</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>73.01324780167951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>238.4089002814613</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>229.7965692041379</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3876,7 +3878,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494252</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>20.95866062610961</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>96.25068158191793</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>308.9203564757145</v>
       </c>
       <c r="G44" t="n">
-        <v>212.3287202925336</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657088</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
         <v>89.59687541851115</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>247.8357087273479</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>165.2069472921626</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330562</v>
+        <v>351.9116580139103</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330562</v>
+        <v>203.5822427727904</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058979</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123837</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985593</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652811</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262269</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433449</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268598</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268598</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="V2" t="n">
-        <v>133.0228471103747</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="W2" t="n">
-        <v>133.0228471103747</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="X2" t="n">
-        <v>133.0228471103747</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.0228471103747</v>
+        <v>500.2410732550301</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.3894859156839</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>163.9364566345569</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024228</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140249</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546608</v>
+        <v>431.9158668530686</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476356</v>
+        <v>511.7941057756093</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017072</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652811</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>696.024607952237</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>696.024607952237</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="T3" t="n">
-        <v>506.6048229357519</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="U3" t="n">
-        <v>506.6048229357519</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="V3" t="n">
-        <v>506.6048229357519</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W3" t="n">
-        <v>506.6048229357519</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X3" t="n">
-        <v>506.6048229357519</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y3" t="n">
-        <v>506.6048229357519</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829027</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829027</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829027</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829027</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829027</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829027</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702829027</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702829027</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404143</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829027</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.00204697330563</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330563</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330563</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330563</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330563</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330563</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330563</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330563</v>
+        <v>18.13634036116611</v>
       </c>
       <c r="J5" t="n">
-        <v>21.0337116067851</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058976</v>
+        <v>53.1018177918304</v>
       </c>
       <c r="L5" t="n">
-        <v>191.874309407919</v>
+        <v>141.3070323458399</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644763</v>
+        <v>271.1217663066261</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123839</v>
+        <v>407.6508467588566</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985595</v>
+        <v>523.2361246735312</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602028</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652813</v>
+        <v>463.1245860845262</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652813</v>
+        <v>314.7951708434062</v>
       </c>
       <c r="U5" t="n">
-        <v>560.6825636487961</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="V5" t="n">
-        <v>371.2627786323109</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="W5" t="n">
-        <v>181.8429936158257</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="X5" t="n">
-        <v>181.8429936158257</v>
+        <v>166.4657556022862</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00204697330563</v>
+        <v>166.4657556022862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>581.8870116452133</v>
+        <v>183.0820669769777</v>
       </c>
       <c r="C6" t="n">
-        <v>407.4339823640863</v>
+        <v>183.0820669769777</v>
       </c>
       <c r="D6" t="n">
-        <v>258.4995727028351</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="E6" t="n">
-        <v>99.26211769737955</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330563</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330563</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330563</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330563</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330563</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024284</v>
+        <v>51.36582106616825</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772658</v>
+        <v>150.9598290415669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140255</v>
+        <v>286.5382069752474</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546614</v>
+        <v>392.9114626603244</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476362</v>
+        <v>511.1831359408233</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017077</v>
+        <v>586.7735145200486</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652813</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652813</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.1023486652813</v>
+        <v>290.7256538725952</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330563</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330563</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330563</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330563</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230188</v>
+        <v>14.12595803543247</v>
       </c>
       <c r="M7" t="n">
-        <v>42.9899398517074</v>
+        <v>19.89179156510284</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396366</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665727</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>750.1023486652808</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="C8" t="n">
-        <v>750.1023486652808</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487957</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E8" t="n">
-        <v>371.2627786323106</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="F8" t="n">
-        <v>181.8429936158256</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123834</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652808</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652808</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="Y8" t="n">
-        <v>750.1023486652808</v>
+        <v>583.2614020227602</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
         <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652808</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652808</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="U9" t="n">
-        <v>583.2614020227609</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="V9" t="n">
-        <v>393.8416170062758</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="W9" t="n">
-        <v>204.4218319897907</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.55991817042172</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829027</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1634.430639198019</v>
+        <v>921.7704558796279</v>
       </c>
       <c r="C11" t="n">
-        <v>1634.430639198019</v>
+        <v>552.8079389392162</v>
       </c>
       <c r="D11" t="n">
-        <v>1634.430639198019</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="E11" t="n">
-        <v>1248.642386599775</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>837.6564818101676</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="G11" t="n">
-        <v>421.9411218290435</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H11" t="n">
-        <v>117.7733211810522</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I11" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J11" t="n">
-        <v>186.3894711936273</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>440.055736850883</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>791.6529319622239</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2045.692679619748</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S11" t="n">
-        <v>2424.591091314532</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T11" t="n">
-        <v>2274.612388774394</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U11" t="n">
-        <v>2021.030479262141</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>2021.030479262141</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W11" t="n">
-        <v>2021.030479262141</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>2021.030479262141</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>2021.030479262141</v>
+        <v>1308.37029594375</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>847.7078870346778</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C12" t="n">
-        <v>673.2548577535508</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D12" t="n">
-        <v>524.3204480922996</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E12" t="n">
-        <v>365.082993086844</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F12" t="n">
-        <v>218.548435113729</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G12" t="n">
-        <v>81.84134786343733</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H12" t="n">
-        <v>81.84134786343733</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I12" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J12" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>296.6386113086636</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>590.134131986624</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M12" t="n">
-        <v>951.9864295006901</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.824525520585</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O12" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P12" t="n">
-        <v>1914.691514651696</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q12" t="n">
-        <v>2029.297224930789</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R12" t="n">
-        <v>2029.297224930789</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2029.297224930789</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.297224930789</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U12" t="n">
-        <v>1801.206747336066</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1566.054639104323</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W12" t="n">
-        <v>1311.817282376121</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X12" t="n">
-        <v>1103.965782170588</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y12" t="n">
-        <v>896.2054834056346</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="C13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="D13" t="n">
-        <v>493.9492916516283</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="E13" t="n">
-        <v>346.0361980692352</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="F13" t="n">
-        <v>324.9801324377098</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9889085973923</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9889085973923</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="I13" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J13" t="n">
-        <v>50.99064134900323</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K13" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1506500142257</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M13" t="n">
-        <v>353.276724040951</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N13" t="n">
-        <v>481.3326611335758</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O13" t="n">
-        <v>579.2999565750212</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P13" t="n">
-        <v>644.0659310639641</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R13" t="n">
-        <v>644.0659310639641</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="S13" t="n">
-        <v>644.0659310639641</v>
+        <v>639.3706644025402</v>
       </c>
       <c r="T13" t="n">
-        <v>644.0659310639641</v>
+        <v>417.6040489720663</v>
       </c>
       <c r="U13" t="n">
-        <v>644.0659310639641</v>
+        <v>417.6040489720663</v>
       </c>
       <c r="V13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="W13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="X13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.0659310639641</v>
+        <v>162.9195607661794</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1789.46646912496</v>
+        <v>1175.300932605791</v>
       </c>
       <c r="C14" t="n">
-        <v>1420.503952184549</v>
+        <v>806.3384156653794</v>
       </c>
       <c r="D14" t="n">
-        <v>1062.238253577798</v>
+        <v>448.0727170586289</v>
       </c>
       <c r="E14" t="n">
-        <v>676.4500009795538</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="F14" t="n">
-        <v>265.4640961899462</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="G14" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H14" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I14" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>186.3894711936269</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>440.0557368508828</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>791.6529319622234</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>1648.887652554183</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2045.692679619748</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>2549.532067450162</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2549.532067450162</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2549.532067450162</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W14" t="n">
-        <v>2549.532067450162</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X14" t="n">
-        <v>2176.066309189082</v>
+        <v>1952.040104645725</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.066309189082</v>
+        <v>1561.900772669913</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>533.9606367248521</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C15" t="n">
-        <v>359.5076074437251</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D15" t="n">
-        <v>210.5731977824738</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E15" t="n">
-        <v>197.5251993221183</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F15" t="n">
-        <v>50.99064134900323</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G15" t="n">
-        <v>50.99064134900323</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H15" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>296.6386113086637</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>590.1341319866242</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>951.9864295006905</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.824525520586</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O15" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P15" t="n">
-        <v>1914.691514651697</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q15" t="n">
-        <v>2029.29722493079</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R15" t="n">
-        <v>2029.29722493079</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2029.29722493079</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>1835.267715270074</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U15" t="n">
-        <v>1607.177237675351</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1372.025129443608</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W15" t="n">
-        <v>1117.787772715407</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X15" t="n">
-        <v>909.936272509874</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y15" t="n">
-        <v>702.1759737449202</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>535.8311416996207</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C16" t="n">
-        <v>366.8949587717138</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D16" t="n">
-        <v>366.8949587717138</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E16" t="n">
-        <v>218.9818651893208</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9818651893208</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>50.99064134900323</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>50.99064134900323</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>50.99064134900323</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K16" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L16" t="n">
-        <v>230.1506500142258</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M16" t="n">
-        <v>353.2767240409511</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N16" t="n">
-        <v>481.3326611335759</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O16" t="n">
-        <v>579.2999565750213</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P16" t="n">
-        <v>644.0659310639642</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R16" t="n">
-        <v>644.0659310639642</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="S16" t="n">
-        <v>644.0659310639642</v>
+        <v>639.3706644025402</v>
       </c>
       <c r="T16" t="n">
-        <v>644.0659310639642</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="U16" t="n">
-        <v>644.0659310639642</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="V16" t="n">
-        <v>644.0659310639642</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="W16" t="n">
-        <v>644.0659310639642</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="X16" t="n">
-        <v>644.0659310639642</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.0659310639642</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796265</v>
+        <v>1758.295537883726</v>
       </c>
       <c r="C17" t="n">
-        <v>921.7704558796265</v>
+        <v>1389.333020943314</v>
       </c>
       <c r="D17" t="n">
-        <v>921.7704558796265</v>
+        <v>1389.333020943314</v>
       </c>
       <c r="E17" t="n">
-        <v>921.7704558796265</v>
+        <v>1003.54476834507</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>592.5588635554623</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>177.4864134004587</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5588,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5701,22 +5703,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>723.6376486118401</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>723.6376486118401</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>468.9531604059532</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W19" t="n">
-        <v>468.9531604059532</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>182.687705739677</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1267.635416552713</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C20" t="n">
-        <v>1267.635416552713</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>909.3697179459625</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y20" t="n">
-        <v>1654.235256616835</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,16 +5837,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>140.339771534062</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>342.366968906868</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X22" t="n">
-        <v>114.3774180088506</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.3774180088506</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1175.300932605789</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C23" t="n">
-        <v>806.3384156653772</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D23" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E23" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
         <v>779.1681669784198</v>
@@ -5981,58 +5983,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>1952.040104645722</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1561.900772669911</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
         <v>458.9189605332749</v>
@@ -6057,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.2351809199101</v>
+        <v>2640.167115151077</v>
       </c>
       <c r="C25" t="n">
-        <v>675.2351809199101</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199101</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E25" t="n">
-        <v>527.322087337517</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>856.8836457501499</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>856.8836457501499</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>856.8836457501499</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W25" t="n">
-        <v>856.8836457501499</v>
+        <v>3042.608159124847</v>
       </c>
       <c r="X25" t="n">
-        <v>856.8836457501499</v>
+        <v>3042.608159124847</v>
       </c>
       <c r="Y25" t="n">
-        <v>856.8836457501499</v>
+        <v>2821.815579981317</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1519.135572818019</v>
+        <v>2126.729101932993</v>
       </c>
       <c r="C26" t="n">
-        <v>1519.135572818019</v>
+        <v>1757.766584992581</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.869874211268</v>
+        <v>1399.500886385831</v>
       </c>
       <c r="E26" t="n">
-        <v>775.0816216130238</v>
+        <v>1013.712633787586</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>602.7267289979789</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>187.6542788429753</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2648.643400128066</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W26" t="n">
-        <v>2295.874744857952</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X26" t="n">
-        <v>2295.874744857952</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y26" t="n">
-        <v>1905.73541288214</v>
+        <v>2513.328941997115</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>751.950822890278</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>601.8341834779422</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>453.9210898955491</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>307.0311423976387</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>307.0311423976387</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6412,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G29" t="n">
         <v>66.5121164321834</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.791869823214</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="30">
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.2489900899278</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>342.3128071620209</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>342.3128071620209</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>342.3128071620209</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>195.4228596641106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
         <v>66.5121164321834</v>
@@ -6652,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="Y31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.40402049088</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926361</v>
+        <v>736.8185791558158</v>
       </c>
       <c r="F32" t="n">
-        <v>709.6157678926361</v>
+        <v>325.8326743662082</v>
       </c>
       <c r="G32" t="n">
-        <v>294.5433177376325</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6734,16 +6736,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="C34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="D34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="E34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="F34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="G34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="H34" t="n">
-        <v>2476.833268349024</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I34" t="n">
         <v>2471.230932223169</v>
@@ -6883,25 +6885,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435996</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>2912.153322005523</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>2623.050455131166</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>2623.050455131166</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W34" t="n">
-        <v>2623.050455131166</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X34" t="n">
-        <v>2623.050455131166</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="Y34" t="n">
-        <v>2623.050455131166</v>
+        <v>2781.504163366323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2062.330773118628</v>
+        <v>1865.035106955553</v>
       </c>
       <c r="C35" t="n">
-        <v>1693.368256178216</v>
+        <v>1496.072590015141</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>1137.806891408391</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>752.0186388101465</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>341.032734020539</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>341.032734020539</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6965,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2788.565186649822</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W35" t="n">
-        <v>2435.796531379708</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X35" t="n">
-        <v>2062.330773118628</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y35" t="n">
-        <v>2062.330773118628</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2769.260665217898</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="C37" t="n">
-        <v>2769.260665217898</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="D37" t="n">
-        <v>2619.144025805563</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.230932223169</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.230932223169</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q37" t="n">
         <v>3325.605821609171</v>
@@ -7120,25 +7122,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>3280.130147522729</v>
+        <v>3149.803251153282</v>
       </c>
       <c r="T37" t="n">
-        <v>3058.363532092255</v>
+        <v>2928.036635722808</v>
       </c>
       <c r="U37" t="n">
-        <v>2769.260665217898</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="V37" t="n">
-        <v>2769.260665217898</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="W37" t="n">
-        <v>2769.260665217898</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="X37" t="n">
-        <v>2769.260665217898</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="Y37" t="n">
-        <v>2769.260665217898</v>
+        <v>2638.933768848452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1605.601998493312</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C38" t="n">
-        <v>1605.601998493312</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D38" t="n">
-        <v>1605.601998493312</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.813745895067</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="F38" t="n">
-        <v>808.8278411054598</v>
+        <v>458.0904502382893</v>
       </c>
       <c r="G38" t="n">
-        <v>393.7553909504563</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V38" t="n">
-        <v>2755.806928794325</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W38" t="n">
-        <v>2755.806928794325</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X38" t="n">
-        <v>2382.341170533245</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y38" t="n">
-        <v>1992.201838557433</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>2956.900148883248</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>2810.010201385338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>2642.307364760057</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.605821609171</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X40" t="n">
-        <v>3325.605821609171</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y40" t="n">
-        <v>3104.813242465641</v>
+        <v>182.6877057396768</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1046.558481879034</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>677.5959649386225</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>677.5959649386225</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>291.8077123403783</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>291.8077123403783</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>291.8077123403783</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>239.8697723080287</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>573.6891459978751</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1024.723359246284</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1558.255263918209</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2105.034080976991</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2549.532067450162</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>2549.532067450162</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>2549.532067450162</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2549.532067450162</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W41" t="n">
-        <v>2196.763412180047</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X41" t="n">
-        <v>1823.297653918968</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y41" t="n">
-        <v>1433.158321943156</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>926.0223793979284</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>751.5693501168014</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>602.6349404555501</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>443.3974854500947</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>296.8629274769796</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>160.4998273095977</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>144.6679108396206</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>382.9321098199677</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>749.6302701326331</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.429638909403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.390918327458</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2391.890509803561</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2549.532067450161</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2549.387714042676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2419.949827536156</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2227.306827214012</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>1999.238980348427</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1764.086872116685</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1509.849515388483</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1301.99801518295</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1094.237716417996</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.99064134900323</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C43" t="n">
-        <v>50.99064134900323</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D43" t="n">
-        <v>50.99064134900323</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E43" t="n">
-        <v>50.99064134900323</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>50.99064134900323</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>884.1951664662072</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>595.0922995918507</v>
+        <v>601.8974796989049</v>
       </c>
       <c r="V43" t="n">
-        <v>340.4078113859638</v>
+        <v>601.8974796989049</v>
       </c>
       <c r="W43" t="n">
-        <v>50.99064134900323</v>
+        <v>601.8974796989049</v>
       </c>
       <c r="X43" t="n">
-        <v>50.99064134900323</v>
+        <v>601.8974796989049</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.99064134900323</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.46646912496</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C44" t="n">
-        <v>1420.503952184549</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D44" t="n">
-        <v>1062.238253577798</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E44" t="n">
-        <v>676.4500009795538</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F44" t="n">
-        <v>265.4640961899462</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>50.99064134900323</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>50.99064134900323</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>502.0248545974121</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>856.720051399182</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>1403.498868457964</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>1906.471339337301</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>2301.24570569448</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>2549.532067450162</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2549.532067450162</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W44" t="n">
-        <v>2549.532067450162</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X44" t="n">
-        <v>2176.066309189082</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y44" t="n">
-        <v>2176.066309189082</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>926.0223793979292</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>751.5693501168022</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>602.6349404555509</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>443.3974854500954</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>296.8629274769804</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>160.4998273095977</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>144.6679108396211</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>382.932109819968</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>749.6302701326333</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2549.532067450162</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2549.387714042677</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2419.949827536157</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2227.306827214013</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>1999.238980348428</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1764.086872116686</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1509.849515388484</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1301.998015182951</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1094.237716417997</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>218.6934779742843</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C46" t="n">
-        <v>218.6934779742843</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D46" t="n">
-        <v>218.6934779742843</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E46" t="n">
-        <v>218.6934779742843</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>218.6934779742843</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>905.3655307350048</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>655.0264310104109</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V46" t="n">
-        <v>400.341942804524</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="W46" t="n">
-        <v>400.341942804524</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="X46" t="n">
-        <v>400.341942804524</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="Y46" t="n">
-        <v>400.341942804524</v>
+        <v>532.2446860521933</v>
       </c>
     </row>
   </sheetData>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.8932495277822</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>218.4267706822989</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319743</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>88.04160906661441</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988651</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038146</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.89593232254956</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>21.88218769163137</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625680958</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>79.02279728521563</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784777</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22741,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>197.17059429933</v>
       </c>
     </row>
     <row r="5">
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>266.3980159715228</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166637</v>
+        <v>86.27197698880633</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>39.09241243252811</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>67.2382049840829</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871001</v>
+        <v>104.3348437827354</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038146</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510927</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.0654014799587</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>59.96603262320598</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5989444759299261</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>61.6517423765507</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846314</v>
+        <v>77.29308816345807</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>104.8488620722108</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>58.92686411476865</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>101.2177245773848</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825412</v>
+        <v>61.70981873818779</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402845</v>
+        <v>0.3148989349952949</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22978,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709379</v>
+        <v>26.04487966482523</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515972</v>
+        <v>74.18139529270546</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23024,16 +23026,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543627</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059416</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753912</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G8" t="n">
-        <v>247.9252960539633</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
@@ -23081,7 +23083,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413184</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23115,13 +23117,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>100.8186858982531</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846314</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>60.69123123399618</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310506</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W9" t="n">
-        <v>64.1693959945994</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23194,16 +23196,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402845</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.6860405515972</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410617</v>
       </c>
       <c r="T10" t="n">
-        <v>171.5037272356653</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>321.7031528533579</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>58.22524901108901</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.5205632426201</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23352,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>92.88584454571125</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.2867095848742</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0892145641079</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>124.5755430477211</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2933991810722</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.9090505191821023</v>
       </c>
       <c r="J13" t="n">
-        <v>8.242911051707722</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.85573157916966</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7694211601826</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.7445699524669</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7688271957736</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>45.76230522500663</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2294860887793</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>301.1261226415114</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>66.11485303372848</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.6915663742737</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.704164525825</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23580,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>144.727561979649</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3400163777887</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>92.88584454571124</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.54219944928974</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.28670958487417</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.6795387112373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2933991810722</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.9382845759051</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.242911051707694</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.85573157916963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.7694211601826</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.7445699524668</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7688271957736</v>
+        <v>204.9732783916344</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>307.2767095024426</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.3201401616539</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>64.81814676751867</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,19 +23943,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>24.27208564188771</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>30.36008496825389</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.4063110663556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.4453316210368</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>73.34458409570941</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24181,19 +24183,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>244.7347328444708</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>327.7844954205951</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24415,22 +24417,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>156.1856228088145</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>258.4929558009378</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>174.6770236006365</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>221.6603650905403</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>2.993599618358104</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>290.3129182374928</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>98.05997660827386</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>38.40417245942034</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24892,10 +24894,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>154.1943732987689</v>
       </c>
       <c r="H32" t="n">
-        <v>110.4338048678518</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25090,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.7689166743741</v>
       </c>
       <c r="I34" t="n">
-        <v>90.80610764524175</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>238.4313691268578</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>22.8323529748485</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25205,7 +25207,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25360,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>144.7481079858645</v>
+        <v>15.7244805801113</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>23.25917518540865</v>
       </c>
       <c r="H38" t="n">
-        <v>12.21385238715629</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>64.81814676751888</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>71.74176711264127</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>56.1988641058592</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25685,7 +25687,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>97.95568926599702</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25837,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>198.5902886500596</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>189.9611566236949</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>97.95568926599697</v>
       </c>
       <c r="G44" t="n">
-        <v>198.5930053609199</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25922,16 +25924,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26074,13 +26076,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.37612947826494</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>86.93069603166543</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337679</v>
+        <v>402256.5418769752</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.075833768</v>
+        <v>402256.5418769754</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337678</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732074.4812007229</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732074.4812007226</v>
+        <v>855506.5411587493</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777591.6108183697</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777591.6108183695</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>139242.6491112606</v>
+      </c>
+      <c r="C2" t="n">
+        <v>139242.6491112606</v>
+      </c>
+      <c r="D2" t="n">
         <v>149975.6800963041</v>
       </c>
-      <c r="C2" t="n">
-        <v>149975.6800963042</v>
-      </c>
-      <c r="D2" t="n">
-        <v>149975.6800963042</v>
-      </c>
       <c r="E2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318748</v>
       </c>
       <c r="F2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318749</v>
       </c>
       <c r="G2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="H2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="I2" t="n">
         <v>296136.8796318747</v>
       </c>
-      <c r="H2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="I2" t="n">
-        <v>296136.8796318746</v>
-      </c>
       <c r="J2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="K2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="L2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="M2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="N2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="O2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="M2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="N2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="O2" t="n">
-        <v>269166.3268217432</v>
-      </c>
       <c r="P2" t="n">
-        <v>269166.3268217433</v>
+        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>43803.8038407444</v>
       </c>
       <c r="E3" t="n">
-        <v>442006.5628979785</v>
+        <v>627134.6436336681</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176272.847277912</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>38421.40650613402</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10295.60674904869</v>
       </c>
       <c r="M3" t="n">
-        <v>112106.2709100169</v>
+        <v>160456.4418678776</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723343</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723343</v>
+        <v>107.192147960263</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723343</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="E4" t="n">
-        <v>449.9968236586044</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="F4" t="n">
-        <v>449.9968236586045</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="O4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.8004116136</v>
+        <v>53719.11977902091</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>59058.54363117637</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
-        <v>59058.54363117638</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26506,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498504.8229542275</v>
+        <v>-457239.097790851</v>
       </c>
       <c r="C6" t="n">
-        <v>92852.07956661822</v>
+        <v>85416.33718427921</v>
       </c>
       <c r="D6" t="n">
-        <v>92852.07956661822</v>
+        <v>49048.27572587379</v>
       </c>
       <c r="E6" t="n">
-        <v>-248104.7060141019</v>
+        <v>-405888.7515521927</v>
       </c>
       <c r="F6" t="n">
-        <v>193901.8568838765</v>
+        <v>221245.8920814754</v>
       </c>
       <c r="G6" t="n">
-        <v>44973.04480356327</v>
+        <v>221245.8920814755</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814751</v>
+        <v>221245.8920814752</v>
       </c>
       <c r="I6" t="n">
         <v>221245.8920814752</v>
       </c>
       <c r="J6" t="n">
-        <v>172180.9473529304</v>
+        <v>182824.485575341</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814752</v>
+        <v>221245.8920814751</v>
       </c>
       <c r="L6" t="n">
+        <v>210950.2853324264</v>
+      </c>
+      <c r="M6" t="n">
+        <v>60789.45021359745</v>
+      </c>
+      <c r="N6" t="n">
+        <v>221245.892081475</v>
+      </c>
+      <c r="O6" t="n">
         <v>221245.8920814751</v>
       </c>
-      <c r="M6" t="n">
-        <v>109139.6211714582</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>221245.8920814751</v>
-      </c>
-      <c r="O6" t="n">
-        <v>206163.387548825</v>
-      </c>
-      <c r="P6" t="n">
-        <v>206163.3875488251</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
-        <v>931.4521195382529</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>931.4521195382531</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="F4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26820,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>637.3830168625404</v>
-      </c>
-      <c r="P4" t="n">
-        <v>637.3830168625404</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39307775568363</v>
       </c>
       <c r="E3" t="n">
-        <v>382.982178625348</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158.3245810550452</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.67946607761118</v>
       </c>
       <c r="E4" t="n">
-        <v>449.8574296962203</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>194.0184385397524</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761118</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962204</v>
+        <v>643.8758682359736</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761118</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962203</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>194.0184385397524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>223.2813342651926</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936719</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621744</v>
+        <v>177.8597534986737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>279.0818904206855</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>238.7894450985627</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>140.5989153332808</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590853</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975332</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820373</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31689,31 +31691,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.744531133822119</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H11" t="n">
-        <v>38.34867947425579</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>317.8123993192354</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>476.3184022139258</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L11" t="n">
-        <v>590.9150969006346</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M11" t="n">
-        <v>657.5069024517437</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N11" t="n">
-        <v>668.1460515357159</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9113700737721</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P11" t="n">
-        <v>538.4682577075384</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.3672364775337</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R11" t="n">
-        <v>235.2174038349539</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>85.32850321197162</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T11" t="n">
-        <v>16.39168503830633</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2995624907057695</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.003500785421902</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>68.98018055071024</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>323.5214404249043</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>435.0145016768039</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6414051483478</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N12" t="n">
-        <v>521.0771626084799</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O12" t="n">
-        <v>476.6838030999208</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P12" t="n">
-        <v>382.5807771741175</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R12" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>37.21414836079715</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T12" t="n">
-        <v>8.075514130713717</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1318092621988094</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.67966775654439</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.93377332636741</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>50.51219035135313</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>118.7525103876884</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>249.7207862775178</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M13" t="n">
-        <v>263.295555691772</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
-        <v>257.0349758719249</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>237.4134025341108</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>203.1481803006051</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.6492700502762</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>75.52397021698684</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S13" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>7.176762232507848</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09161824126605776</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.74453113382212</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H14" t="n">
-        <v>38.3486794742558</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I14" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>317.8123993192355</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>476.3184022139259</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L14" t="n">
-        <v>590.9150969006347</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M14" t="n">
-        <v>657.5069024517438</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N14" t="n">
-        <v>668.146051535716</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O14" t="n">
-        <v>630.9113700737722</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P14" t="n">
-        <v>538.4682577075386</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.3672364775338</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R14" t="n">
-        <v>235.217403834954</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>85.32850321197165</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T14" t="n">
-        <v>16.39168503830634</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2995624907057696</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.003500785421903</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>68.98018055071026</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>323.5214404249044</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L15" t="n">
-        <v>435.014501676804</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6414051483479</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N15" t="n">
-        <v>521.07716260848</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O15" t="n">
-        <v>476.6838030999209</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>382.5807771741176</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R15" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>37.21414836079716</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T15" t="n">
-        <v>8.075514130713719</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1318092621988095</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.679667756544391</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.93377332636741</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>50.51219035135315</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J16" t="n">
-        <v>118.7525103876884</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K16" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>249.7207862775179</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M16" t="n">
-        <v>263.2955556917721</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N16" t="n">
-        <v>257.034975871925</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>237.4134025341109</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>203.1481803006051</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.6492700502762</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>75.52397021698685</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S16" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>7.17676223250785</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09161824126605778</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34144,16 +34146,16 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>679.0860765461017</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34220,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34366,16 +34368,16 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>588.6242097947171</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
@@ -34390,7 +34392,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>80.68508982074822</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076504</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781537</v>
+        <v>40.01831452431469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>107.4477330152294</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>76.35391775679327</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>0.6171412472592692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646086</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061163</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520835</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400609</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868166</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848231</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855708</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646086</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7664947925491</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>256.2285511689452</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L11" t="n">
-        <v>355.1486819306473</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M11" t="n">
-        <v>427.160669224471</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N11" t="n">
-        <v>438.7329879391249</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O11" t="n">
-        <v>400.8131586520853</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P11" t="n">
-        <v>307.2352619522689</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.0615466030842</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R11" t="n">
-        <v>19.63186602082178</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.44926113497019</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K12" t="n">
-        <v>185.6800014505453</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
-        <v>296.4601218969297</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>365.5073712263294</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N12" t="n">
-        <v>389.7354505251466</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O12" t="n">
-        <v>334.0875586554764</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P12" t="n">
-        <v>248.6063697597873</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.763343716255</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K13" t="n">
-        <v>66.13359572616739</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L13" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
-        <v>124.3697717441669</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3494314066917</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>98.95686408226803</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>65.42017625145746</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7664947925492</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>256.2285511689453</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L14" t="n">
-        <v>355.1486819306475</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M14" t="n">
-        <v>427.1606692244711</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N14" t="n">
-        <v>438.7329879391251</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O14" t="n">
-        <v>400.8131586520855</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P14" t="n">
-        <v>307.235261952269</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.0615466030843</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R14" t="n">
-        <v>19.63186602082183</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.44926113497021</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K15" t="n">
-        <v>185.6800014505454</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L15" t="n">
-        <v>296.4601218969298</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>365.5073712263296</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N15" t="n">
-        <v>389.7354505251467</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O15" t="n">
-        <v>334.0875586554765</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
-        <v>248.6063697597874</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.7633437162551</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K16" t="n">
-        <v>66.13359572616741</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L16" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>124.369771744167</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N16" t="n">
-        <v>129.3494314066918</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>98.95686408226808</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>65.42017625145752</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37792,16 +37794,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>448.987865124415</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>358.2779765674444</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625616</v>
+        <v>399383.5293367553</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347751</v>
+        <v>8547013.059513934</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815497</v>
+        <v>8673692.685730742</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.07008646612813</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.3420634549345</v>
+        <v>75.00093456239607</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.41405905276474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>88.09081815943081</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328709</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S5" t="n">
-        <v>123.017299287606</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>146.8461210887088</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.5671510266614</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.51003348857977</v>
       </c>
       <c r="J6" t="n">
-        <v>22.7749124282733</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>146.8461210887088</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X6" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.41405905276496</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02307145248658162</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>84.55083645194672</v>
       </c>
       <c r="U9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>111.9684348866486</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>32.97988876732504</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657065</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247899</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>124.4808309317246</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>95.44336989065596</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>336.1680648472552</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>189.8632485932794</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851275</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414535</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.57567088453485</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>62.69769161018411</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>68.28762422566659</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>160.1455888558293</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414535</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115.0138334144186</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>101.4273232270211</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>156.5239610141558</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>318.8808837491591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>73.08937855085976</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>58.94788863247332</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>137.9991088190098</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>36.34690181272053</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>77.42003977968199</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>28.03004253565322</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>119.930740786684</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>161.1213657616681</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>120.6088074159607</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>239.1293185150362</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2924,7 +2924,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U30" t="n">
         <v>225.7871683969286</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
         <v>81.77200357366344</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>340.8792122661204</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>256.7273523546845</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>30.98609823994668</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>115.6658528963367</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>219.1834685212301</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.775411412472</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>174.0445447513306</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>387.6625504680448</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>57.92518451681327</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.0138334144184</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>178.2148164478353</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>229.7965692041379</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>216.1029489550158</v>
       </c>
     </row>
     <row r="42">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>96.25068158191793</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>20.95866062610968</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>308.9203564757145</v>
+        <v>378.9782692442526</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2069472921626</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.9116580139103</v>
+        <v>583.26140202276</v>
       </c>
       <c r="C2" t="n">
-        <v>203.5822427727904</v>
+        <v>583.26140202276</v>
       </c>
       <c r="D2" t="n">
-        <v>55.25282753167056</v>
+        <v>583.26140202276</v>
       </c>
       <c r="E2" t="n">
-        <v>55.25282753167056</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F2" t="n">
-        <v>55.25282753167056</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G2" t="n">
-        <v>55.25282753167056</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>55.25282753167056</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183023</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458396</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066254</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588559</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735305</v>
+        <v>649.4845259985583</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548345</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X2" t="n">
-        <v>500.2410732550301</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y2" t="n">
-        <v>500.2410732550301</v>
+        <v>583.26140202276</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709669</v>
+        <v>484.9240438887989</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709669</v>
+        <v>310.4710146076719</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709669</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709669</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616815</v>
+        <v>67.13418877024216</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415666</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>286.538206975247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>431.9158668530686</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>511.7941057756093</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>587.3844843548345</v>
+        <v>739.5989987017065</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>456.7359354104562</v>
+        <v>674.3438289052838</v>
       </c>
       <c r="T3" t="n">
-        <v>308.4065201693364</v>
+        <v>484.9240438887989</v>
       </c>
       <c r="U3" t="n">
-        <v>160.0771049282165</v>
+        <v>484.9240438887989</v>
       </c>
       <c r="V3" t="n">
-        <v>11.74768968709669</v>
+        <v>484.9240438887989</v>
       </c>
       <c r="W3" t="n">
-        <v>11.74768968709669</v>
+        <v>484.9240438887989</v>
       </c>
       <c r="X3" t="n">
-        <v>11.74768968709669</v>
+        <v>484.9240438887989</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.74768968709669</v>
+        <v>484.9240438887989</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>14.1259580354324</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510269</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665703</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.4657556022862</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="C5" t="n">
-        <v>166.4657556022862</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="D5" t="n">
-        <v>166.4657556022862</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="E5" t="n">
-        <v>166.4657556022862</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="F5" t="n">
-        <v>166.4657556022862</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="G5" t="n">
-        <v>18.13634036116611</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="H5" t="n">
-        <v>18.13634036116611</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="I5" t="n">
-        <v>18.13634036116611</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709671</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K5" t="n">
-        <v>53.1018177918304</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458399</v>
+        <v>191.8743094079192</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066261</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588566</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735312</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548353</v>
+        <v>734.4611726020267</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548353</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S5" t="n">
-        <v>463.1245860845262</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T5" t="n">
-        <v>314.7951708434062</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="U5" t="n">
-        <v>166.4657556022862</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="V5" t="n">
-        <v>166.4657556022862</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="W5" t="n">
-        <v>166.4657556022862</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="X5" t="n">
-        <v>166.4657556022862</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.4657556022862</v>
+        <v>103.9826713767711</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183.0820669769777</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="C6" t="n">
-        <v>183.0820669769777</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="D6" t="n">
-        <v>34.75265173585761</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="E6" t="n">
-        <v>34.75265173585761</v>
+        <v>212.0253236268546</v>
       </c>
       <c r="F6" t="n">
-        <v>34.75265173585761</v>
+        <v>212.0253236268546</v>
       </c>
       <c r="G6" t="n">
-        <v>34.75265173585761</v>
+        <v>74.48614244930377</v>
       </c>
       <c r="H6" t="n">
-        <v>34.75265173585761</v>
+        <v>74.48614244930377</v>
       </c>
       <c r="I6" t="n">
-        <v>34.75265173585761</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709671</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616825</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415669</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M6" t="n">
-        <v>286.5382069752474</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9114626603244</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408233</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200486</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T6" t="n">
-        <v>587.3844843548353</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U6" t="n">
-        <v>587.3844843548353</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V6" t="n">
-        <v>587.3844843548353</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137153</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X6" t="n">
-        <v>290.7256538725952</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y6" t="n">
-        <v>290.7256538725952</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="C7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="D7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="E7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="F7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="G7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="H7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="I7" t="n">
-        <v>33.37805236665727</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>33.37805236665727</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543247</v>
+        <v>27.03967056230173</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510284</v>
+        <v>42.98993985170711</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665727</v>
+        <v>66.41847329396326</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="V7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="W7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="X7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.37805236665727</v>
+        <v>67.74542702828975</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>583.2614020227602</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="C8" t="n">
-        <v>583.2614020227602</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="D8" t="n">
-        <v>393.8416170062753</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897905</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="F8" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897902</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678492</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058936</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079181</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644751</v>
       </c>
       <c r="N8" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123823</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985577</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020269</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.10234866528</v>
+        <v>750.102348665279</v>
       </c>
       <c r="R8" t="n">
-        <v>750.10234866528</v>
+        <v>750.102348665279</v>
       </c>
       <c r="S8" t="n">
-        <v>750.10234866528</v>
+        <v>750.102348665279</v>
       </c>
       <c r="T8" t="n">
-        <v>750.10234866528</v>
+        <v>583.2614020227594</v>
       </c>
       <c r="U8" t="n">
-        <v>750.10234866528</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="V8" t="n">
-        <v>750.10234866528</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="W8" t="n">
-        <v>583.2614020227602</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="X8" t="n">
-        <v>583.2614020227602</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.2614020227602</v>
+        <v>393.8416170062748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.55991817042172</v>
+        <v>440.249846876027</v>
       </c>
       <c r="C9" t="n">
-        <v>30.55991817042172</v>
+        <v>265.7968175949</v>
       </c>
       <c r="D9" t="n">
-        <v>30.55991817042172</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E9" t="n">
-        <v>30.55991817042172</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F9" t="n">
-        <v>30.55991817042172</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G9" t="n">
-        <v>30.55991817042172</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024206</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R9" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264275</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198763</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="T9" t="n">
-        <v>598.8192732198763</v>
+        <v>440.249846876027</v>
       </c>
       <c r="U9" t="n">
-        <v>409.3994882033915</v>
+        <v>440.249846876027</v>
       </c>
       <c r="V9" t="n">
-        <v>219.9797031869066</v>
+        <v>440.249846876027</v>
       </c>
       <c r="W9" t="n">
-        <v>30.55991817042172</v>
+        <v>440.249846876027</v>
       </c>
       <c r="X9" t="n">
-        <v>30.55991817042172</v>
+        <v>440.249846876027</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.55991817042172</v>
+        <v>440.249846876027</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170709</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V10" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="X10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796279</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392162</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>519.4949199823222</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927146</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136268</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.33740552049</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450756</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180641</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919561</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.37029594375</v>
+        <v>1749.723851760222</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811102</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999832</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927795</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>162.9195607661794</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C13" t="n">
-        <v>162.9195607661794</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D13" t="n">
-        <v>162.9195607661794</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>162.9195607661794</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9195607661794</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>162.9195607661794</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>162.9195607661794</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962297</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757138</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025402</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720663</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U13" t="n">
-        <v>417.6040489720663</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="V13" t="n">
-        <v>162.9195607661794</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="W13" t="n">
-        <v>162.9195607661794</v>
+        <v>342.3669689068672</v>
       </c>
       <c r="X13" t="n">
-        <v>162.9195607661794</v>
+        <v>342.3669689068672</v>
       </c>
       <c r="Y13" t="n">
-        <v>162.9195607661794</v>
+        <v>342.3669689068672</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1175.300932605791</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C14" t="n">
-        <v>806.3384156653794</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D14" t="n">
-        <v>448.0727170586289</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927146</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927146</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176919</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W14" t="n">
-        <v>2325.505862906804</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X14" t="n">
-        <v>1952.040104645725</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y14" t="n">
-        <v>1561.900772669913</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927795</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P16" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757138</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025402</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T16" t="n">
-        <v>624.6477645191717</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U16" t="n">
-        <v>624.6477645191717</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V16" t="n">
-        <v>624.6477645191717</v>
+        <v>444.4359021818234</v>
       </c>
       <c r="W16" t="n">
-        <v>624.6477645191717</v>
+        <v>444.4359021818234</v>
       </c>
       <c r="X16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1758.295537883726</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="C17" t="n">
-        <v>1389.333020943314</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D17" t="n">
-        <v>1389.333020943314</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E17" t="n">
-        <v>1003.54476834507</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="F17" t="n">
-        <v>592.5588635554623</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4864134004587</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W17" t="n">
-        <v>2535.034709923659</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.034709923659</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y17" t="n">
-        <v>2144.895377947847</v>
+        <v>1536.746406853064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,16 +5609,16 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
         <v>2435.471302619336</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812244</v>
+        <v>631.4698357812235</v>
       </c>
       <c r="X19" t="n">
-        <v>403.4802848832071</v>
+        <v>631.4698357812235</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.687705739677</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993392</v>
+        <v>3057.210142010856</v>
       </c>
       <c r="V20" t="n">
-        <v>3119.628073993392</v>
+        <v>2726.147254667285</v>
       </c>
       <c r="W20" t="n">
-        <v>2797.526171216464</v>
+        <v>2726.147254667285</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.060412955384</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y20" t="n">
-        <v>2033.921080979572</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5846,10 +5846,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>290.4564109463977</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C22" t="n">
-        <v>290.4564109463977</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D22" t="n">
-        <v>140.339771534062</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E22" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>861.3436839672011</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181849</v>
+        <v>861.3436839672011</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181849</v>
+        <v>861.3436839672011</v>
       </c>
       <c r="W22" t="n">
-        <v>920.8870058181849</v>
+        <v>861.3436839672011</v>
       </c>
       <c r="X22" t="n">
-        <v>692.8974549201675</v>
+        <v>861.3436839672011</v>
       </c>
       <c r="Y22" t="n">
-        <v>472.1048757766374</v>
+        <v>861.3436839672011</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1559.116588708439</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.154071768027</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.50962791956</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="24">
@@ -6053,22 +6053,22 @@
         <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2640.167115151077</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.23093222317</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>842.6849454346677</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>842.6849454346677</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>842.6849454346677</v>
       </c>
       <c r="V25" t="n">
-        <v>3070.921333403285</v>
+        <v>842.6849454346677</v>
       </c>
       <c r="W25" t="n">
-        <v>3042.608159124847</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="X25" t="n">
-        <v>3042.608159124847</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="Y25" t="n">
-        <v>2821.815579981317</v>
+        <v>553.2677753977071</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2126.729101932993</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1757.766584992581</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.500886385831</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>1013.712633787586</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>602.7267289979789</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
-        <v>187.6542788429753</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
         <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267229</v>
+        <v>2703.348742962513</v>
       </c>
       <c r="W26" t="n">
-        <v>2513.328941997115</v>
+        <v>2350.580087692399</v>
       </c>
       <c r="X26" t="n">
-        <v>2513.328941997115</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y26" t="n">
-        <v>2513.328941997115</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1712.341567565137</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="C29" t="n">
-        <v>1343.379050624726</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="D29" t="n">
-        <v>985.1133520179753</v>
+        <v>1519.903490151843</v>
       </c>
       <c r="E29" t="n">
-        <v>599.325099419731</v>
+        <v>1134.115237553599</v>
       </c>
       <c r="F29" t="n">
-        <v>188.3391946301235</v>
+        <v>723.1293327639912</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>308.0568826089877</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136265</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W29" t="n">
-        <v>2862.546497866151</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.080739605071</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y29" t="n">
-        <v>2098.941407629259</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="30">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="D31" t="n">
         <v>66.5121164321834</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.569348694472</v>
+        <v>1980.946859214234</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.60683175406</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1122.60683175406</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>736.8185791558158</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>325.8326743662082</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
         <v>66.5121164321834</v>
@@ -6700,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6733,19 +6733,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.542934265599</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.774278995485</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.308520734405</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.169188758593</v>
+        <v>2367.546699278356</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2599.855698536083</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="C34" t="n">
-        <v>2599.855698536083</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D34" t="n">
-        <v>2599.855698536083</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E34" t="n">
-        <v>2599.855698536083</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F34" t="n">
-        <v>2599.855698536083</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>2599.855698536083</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>2568.556609404824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403283</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.504163366323</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="X34" t="n">
-        <v>2781.504163366323</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="Y34" t="n">
-        <v>2781.504163366323</v>
+        <v>549.3683227675135</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.035106955553</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.072590015141</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D35" t="n">
-        <v>1137.806891408391</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E35" t="n">
-        <v>752.0186388101465</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F35" t="n">
-        <v>341.032734020539</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
-        <v>341.032734020539</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6937,22 +6937,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>2641.774278995486</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2251.634947019675</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="36">
@@ -6992,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2638.933768848452</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>2638.933768848452</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>2638.933768848452</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>2638.933768848452</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>2638.933768848452</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>3149.803251153282</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>2928.036635722808</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>2638.933768848452</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>2638.933768848452</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W37" t="n">
-        <v>2638.933768848452</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X37" t="n">
-        <v>2638.933768848452</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y37" t="n">
-        <v>2638.933768848452</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1238.038871968309</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="C38" t="n">
-        <v>869.0763550278969</v>
+        <v>869.0763550278987</v>
       </c>
       <c r="D38" t="n">
-        <v>869.0763550278969</v>
+        <v>510.8106564211482</v>
       </c>
       <c r="E38" t="n">
-        <v>869.0763550278969</v>
+        <v>125.0224038229039</v>
       </c>
       <c r="F38" t="n">
-        <v>458.0904502382893</v>
+        <v>125.0224038229039</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>125.0224038229039</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539436</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.243802269322</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X38" t="n">
-        <v>2014.778044008242</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y38" t="n">
-        <v>1624.63871203243</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
@@ -7250,31 +7250,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450122</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W40" t="n">
-        <v>631.4698357812242</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X40" t="n">
-        <v>403.4802848832069</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.6877057396768</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="41">
@@ -7393,70 +7393,70 @@
         <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>863.2862738200353</v>
       </c>
       <c r="E41" t="n">
         <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V41" t="n">
-        <v>3093.488074938325</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>1808.800296392466</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>601.8974796989049</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V43" t="n">
-        <v>601.8974796989049</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W43" t="n">
-        <v>601.8974796989049</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X43" t="n">
-        <v>601.8974796989049</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.569348694473</v>
+        <v>1977.407367302545</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.606831754061</v>
+        <v>1608.444850362134</v>
       </c>
       <c r="D44" t="n">
-        <v>764.341133147311</v>
+        <v>1250.179151755383</v>
       </c>
       <c r="E44" t="n">
-        <v>378.5528805490667</v>
+        <v>864.3908991571391</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218343</v>
@@ -7648,22 +7648,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7681,19 +7681,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265601</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995486</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.308520734407</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.169188758595</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218343</v>
@@ -7836,22 +7836,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>699.120390387711</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V46" t="n">
-        <v>532.2446860521933</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W46" t="n">
-        <v>532.2446860521933</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X46" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y46" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>218.4267706822989</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>207.8369205319743</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>88.04160906661441</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>204.5585635023744</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354543</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827334</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345809</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>21.88218769163137</v>
+        <v>74.76931012855356</v>
       </c>
       <c r="T3" t="n">
-        <v>48.87899782081595</v>
+        <v>7.88401062568127</v>
       </c>
       <c r="U3" t="n">
-        <v>79.02279728521563</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>85.95446606071664</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>21.7289579877603</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482527</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.1813952927055</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.17059429933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>266.3980159715228</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>37.38049896054393</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880633</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.09241243252811</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>67.2382049840829</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>104.3348437827354</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.96603262320598</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5989444759299261</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354542</v>
+        <v>15.39452541551174</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345807</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>104.8488620722108</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X6" t="n">
-        <v>58.92686411476865</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>73.49127351643236</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818779</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3148989349952949</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474336</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482523</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270546</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,16 +23026,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753914</v>
+        <v>219.3504585753917</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637383</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>48.27134388011237</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871058</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>184.0684315413184</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23102,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23117,13 +23117,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8186858982531</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>110.8587613400545</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377092</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K10" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>154.5643095410617</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
         <v>223.7196734901001</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821567</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>270.7654067768319</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>321.7031528533579</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>55.35114925021273</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9090505191821023</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>45.76230522500663</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.3777201241336</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>204.9732783916344</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>163.011963778853</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3201401616539</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>226.0923498002243</v>
       </c>
     </row>
     <row r="18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.81814676751867</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>117.1573301250737</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>94.47121094474622</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>30.36008496825389</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>73.34458409570941</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>160.6010606436959</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>244.7347328444708</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>349.891036843333</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>112.3489855517599</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24423,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>258.4929558009378</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>174.6770236006365</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>166.6308927084668</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>290.3129182374928</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>55.47844587228425</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24739,7 +24739,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.05997660827386</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>66.84346944454892</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>24.39367950488719</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>154.1943732987689</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24973,19 +24973,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>113.7689166743741</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>170.8571454402543</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>163.5503731422505</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>22.8323529748485</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>15.7244805801113</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>167.4277998651735</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>23.25917518540865</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>236.6825798705072</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.81814676751888</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>41.33413282833388</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>97.95568926599702</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>170.1349897010378</v>
       </c>
     </row>
     <row r="42">
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>189.9611566236949</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>97.95568926599697</v>
+        <v>27.89777649745884</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25921,13 +25921,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>86.93069603166543</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769752</v>
+        <v>433263.0758337678</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769754</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337677</v>
+        <v>433263.0758337674</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587493</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963041</v>
+        <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318748</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318749</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="H2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="I2" t="n">
         <v>296136.8796318747</v>
@@ -26340,16 +26340,16 @@
         <v>296136.8796318744</v>
       </c>
       <c r="K2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="L2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="M2" t="n">
         <v>296136.8796318744</v>
       </c>
       <c r="N2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="O2" t="n">
         <v>296136.8796318745</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751304</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.8038407444</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336681</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613402</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904869</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678776</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602628</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="C4" t="n">
-        <v>107.192147960263</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723341</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061235</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061235</v>
+        <v>584.6469890061229</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26453,7 +26453,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061235</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902091</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139328</v>
@@ -26493,7 +26493,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26505,10 +26505,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.097790851</v>
+        <v>-510698.8849732619</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.33718427921</v>
+        <v>80658.0175475837</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587379</v>
+        <v>80658.01754758348</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521927</v>
+        <v>-409962.7469303618</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.8920814754</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814755</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.485575341</v>
+        <v>168106.9519747608</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324264</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359745</v>
+        <v>56715.45483542798</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033057</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033055</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572211</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887088</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26825,10 +26825,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568363</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803941</v>
+        <v>541.3067596803934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761118</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359733</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887084</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761118</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359736</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761118</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359733</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961053</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206853</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720419</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>223.2813342651926</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936713</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297035</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0586004549034</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877945</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>79.3641940376634</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593576</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154185</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871685</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270568</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695512</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961055</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656777</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744497</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253258</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611127</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339636</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645458</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358324</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206855</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>238.7894450985627</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914129</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711235</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332808</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050589</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727198</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297038</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055018</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179395</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864959</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793586</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120832</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421835</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199994</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>141.308030123369</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863685</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843224</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674038</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910843</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741627</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113013</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825131</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563588</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I38" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043784</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718112</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040804</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.0183145243146</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887086</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>80.68508982074822</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679318</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.60944440764983</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945162</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043796</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718129</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997841</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729602</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744187</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040821</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559582</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986671</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>107.4477330152294</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469685</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679327</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592692</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945219</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394313</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813579</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P9" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129117</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014226</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222572</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014226</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222663</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367553</v>
+        <v>450275.6437737594</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513934</v>
+        <v>8636206.831769031</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730742</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>129.3420634549346</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>75.00093456239607</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443453</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>88.09081815943081</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.51003348857977</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.52558716632</v>
+        <v>27.24777913943942</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>36.43383855780555</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>165.1725371760944</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.396723986041487</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>84.55083645194672</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>92.45752609970789</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>52.21594625443431</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111.9684348866486</v>
+        <v>62.85595033183607</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657065</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.4808309317246</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>127.675255927006</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>136.3896895755407</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>189.8632485932794</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414535</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>46.68696776231172</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>62.69769161018411</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>38.74166956576627</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>160.1455888558293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414535</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>186.7760034523335</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>101.4273232270211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>340.3076597151594</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>156.5239610141558</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>79.09511222736235</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>58.94788863247332</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,10 +2326,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>36.34690181272053</v>
+        <v>293.7847364097047</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>77.42003977968199</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>238.1138357058008</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>161.1213657616681</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>65.33825739391168</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>195.3153380960386</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>148.5889589693335</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>239.1293185150362</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>81.77200357366344</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>114.0495374903441</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>340.8792122661204</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>85.97636447956961</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>115.842527194377</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>115.6658528963367</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.1834685212301</v>
+        <v>324.0636617256137</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>62.64907291062121</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>85.62798561631821</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>57.92518451681327</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>178.2148164478353</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>224.4292289321556</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>65.33825739391303</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>216.1029489550158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>20.95866062610968</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>378.9782692442526</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>194.23779285178</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>162.0606109397693</v>
       </c>
       <c r="X46" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.26140202276</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C2" t="n">
-        <v>583.26140202276</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D2" t="n">
-        <v>583.26140202276</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062752</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985583</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="X2" t="n">
-        <v>583.26140202276</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.26140202276</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>484.9240438887989</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>310.4710146076719</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024216</v>
+        <v>12.97238670821021</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>112.5663946836087</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>248.144772617289</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>393.5224324951106</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>511.7941057756093</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017065</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>674.3438289052838</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T3" t="n">
-        <v>484.9240438887989</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="U3" t="n">
-        <v>484.9240438887989</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="V3" t="n">
-        <v>484.9240438887989</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="W3" t="n">
-        <v>484.9240438887989</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X3" t="n">
-        <v>484.9240438887989</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y3" t="n">
-        <v>484.9240438887989</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.9826713767711</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C5" t="n">
-        <v>103.9826713767711</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D5" t="n">
-        <v>103.9826713767711</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E5" t="n">
-        <v>103.9826713767711</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F5" t="n">
-        <v>103.9826713767711</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G5" t="n">
-        <v>103.9826713767711</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>103.9826713767711</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678535</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159059007</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079192</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644761</v>
+        <v>306.6973793432473</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123834</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020267</v>
+        <v>659.1628932295215</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262255</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S5" t="n">
-        <v>672.2420264262255</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T5" t="n">
-        <v>672.2420264262255</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="U5" t="n">
-        <v>482.8222414097407</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="V5" t="n">
-        <v>293.4024563932559</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="W5" t="n">
-        <v>103.9826713767711</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="X5" t="n">
-        <v>103.9826713767711</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="Y5" t="n">
-        <v>103.9826713767711</v>
+        <v>161.728413768076</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371.2627786323101</v>
+        <v>150.920571181786</v>
       </c>
       <c r="C6" t="n">
-        <v>371.2627786323101</v>
+        <v>150.920571181786</v>
       </c>
       <c r="D6" t="n">
-        <v>371.2627786323101</v>
+        <v>150.920571181786</v>
       </c>
       <c r="E6" t="n">
-        <v>212.0253236268546</v>
+        <v>150.920571181786</v>
       </c>
       <c r="F6" t="n">
-        <v>212.0253236268546</v>
+        <v>150.920571181786</v>
       </c>
       <c r="G6" t="n">
-        <v>74.48614244930377</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>74.48614244930377</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296057</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772652</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>286.8472429682662</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>450.6888460033935</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476349</v>
+        <v>578.3521085265269</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>661.4800654500998</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652798</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="T6" t="n">
-        <v>560.6825636487949</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487949</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487949</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="W6" t="n">
-        <v>371.2627786323101</v>
+        <v>487.6030058769331</v>
       </c>
       <c r="X6" t="n">
-        <v>371.2627786323101</v>
+        <v>319.135908201854</v>
       </c>
       <c r="Y6" t="n">
-        <v>371.2627786323101</v>
+        <v>319.135908201854</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230173</v>
+        <v>20.64084305584017</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170711</v>
+        <v>31.59410626612423</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396326</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828975</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828975</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.8416170062748</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C8" t="n">
-        <v>393.8416170062748</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D8" t="n">
-        <v>393.8416170062748</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062748</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897902</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678492</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058936</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644751</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123823</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985577</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R8" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S8" t="n">
-        <v>750.102348665279</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T8" t="n">
-        <v>583.2614020227594</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="U8" t="n">
-        <v>393.8416170062748</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="V8" t="n">
-        <v>393.8416170062748</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="W8" t="n">
-        <v>393.8416170062748</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="X8" t="n">
-        <v>393.8416170062748</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="Y8" t="n">
-        <v>393.8416170062748</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>440.249846876027</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="C9" t="n">
-        <v>265.7968175949</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="D9" t="n">
-        <v>116.8624079336487</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E9" t="n">
-        <v>116.8624079336487</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F9" t="n">
-        <v>116.8624079336487</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024206</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R9" t="n">
-        <v>676.9378076264275</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S9" t="n">
-        <v>525.6547321810237</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T9" t="n">
-        <v>440.249846876027</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U9" t="n">
-        <v>440.249846876027</v>
+        <v>656.7109081605244</v>
       </c>
       <c r="V9" t="n">
-        <v>440.249846876027</v>
+        <v>467.2911231440395</v>
       </c>
       <c r="W9" t="n">
-        <v>440.249846876027</v>
+        <v>467.2911231440395</v>
       </c>
       <c r="X9" t="n">
-        <v>440.249846876027</v>
+        <v>467.2911231440395</v>
       </c>
       <c r="Y9" t="n">
-        <v>440.249846876027</v>
+        <v>467.2911231440395</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170709</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.624422581789</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W11" t="n">
-        <v>2513.328941997114</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X11" t="n">
-        <v>2139.863183736034</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1749.723851760222</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5135,7 +5135,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5150,13 +5150,13 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
         <v>1525.370990471662</v>
@@ -5165,7 +5165,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.6287558445191</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="C13" t="n">
-        <v>216.6287558445191</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>195.4770214089571</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438278</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V13" t="n">
-        <v>631.7841389438278</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W13" t="n">
-        <v>342.3669689068672</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X13" t="n">
-        <v>342.3669689068672</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y13" t="n">
-        <v>342.3669689068672</v>
+        <v>342.3669689068675</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1619.798686923957</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C14" t="n">
-        <v>1250.836169983545</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2770.00361722497</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2396.53785896389</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y14" t="n">
-        <v>2006.398526988078</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5372,7 +5372,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
@@ -5384,25 +5384,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>381.1049005553748</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C16" t="n">
-        <v>381.1049005553748</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D16" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>699.1203903877102</v>
+        <v>873.7284525229202</v>
       </c>
       <c r="U16" t="n">
-        <v>699.1203903877102</v>
+        <v>873.7284525229202</v>
       </c>
       <c r="V16" t="n">
-        <v>444.4359021818234</v>
+        <v>873.7284525229202</v>
       </c>
       <c r="W16" t="n">
-        <v>444.4359021818234</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="X16" t="n">
-        <v>381.1049005553748</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y16" t="n">
-        <v>381.1049005553748</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1150.146566788942</v>
+        <v>1675.730933054505</v>
       </c>
       <c r="C17" t="n">
-        <v>1150.146566788942</v>
+        <v>1306.768416114093</v>
       </c>
       <c r="D17" t="n">
-        <v>791.8808681821918</v>
+        <v>948.5027175073426</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839476</v>
+        <v>562.7144649090983</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839476</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5515,52 +5515,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794323</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450752</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2435.796531379706</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919558</v>
+        <v>2062.330773118626</v>
       </c>
       <c r="Y17" t="n">
-        <v>1536.746406853064</v>
+        <v>2062.330773118626</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,7 +5609,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.41198488674</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C19" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218339</v>
@@ -5673,52 +5673,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372931</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181842</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181842</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181842</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812235</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X19" t="n">
-        <v>631.4698357812235</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y19" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1575.942324366272</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="C20" t="n">
-        <v>1575.942324366272</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
         <v>1575.942324366272</v>
@@ -5746,10 +5746,10 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
@@ -5767,37 +5767,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U20" t="n">
-        <v>3057.210142010856</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V20" t="n">
-        <v>2726.147254667285</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W20" t="n">
-        <v>2726.147254667285</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X20" t="n">
-        <v>2352.681496406205</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="Y20" t="n">
-        <v>1962.542164430393</v>
+        <v>2277.953133796415</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5846,10 +5846,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>679.6952191369613</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="C22" t="n">
-        <v>510.7590362090544</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="D22" t="n">
-        <v>360.6423967967187</v>
+        <v>294.319262769488</v>
       </c>
       <c r="E22" t="n">
-        <v>212.7293032143256</v>
+        <v>146.4061691870949</v>
       </c>
       <c r="F22" t="n">
-        <v>212.7293032143256</v>
+        <v>146.4061691870949</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>78.33486996962282</v>
@@ -5916,46 +5916,46 @@
         <v>176.6457242372931</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>861.3436839672011</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U22" t="n">
-        <v>861.3436839672011</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V22" t="n">
-        <v>861.3436839672011</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="W22" t="n">
-        <v>861.3436839672011</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="X22" t="n">
-        <v>861.3436839672011</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="Y22" t="n">
-        <v>861.3436839672011</v>
+        <v>444.4359021818237</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1661.795585684488</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C23" t="n">
-        <v>1292.833068744076</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D23" t="n">
-        <v>934.5673701373257</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y23" t="n">
-        <v>1661.795585684488</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>553.2677753977071</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>384.3315924698002</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6174,25 +6174,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>842.6849454346677</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>842.6849454346677</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>842.6849454346677</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>842.6849454346677</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>553.2677753977071</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X25" t="n">
-        <v>553.2677753977071</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y25" t="n">
-        <v>553.2677753977071</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2703.348742962513</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2350.580087692399</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>1977.114329431319</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
         <v>66.5121164321834</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.8870058181849</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1878.169188758593</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C29" t="n">
-        <v>1878.169188758593</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D29" t="n">
-        <v>1519.903490151843</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E29" t="n">
-        <v>1134.115237553599</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>723.1293327639912</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>308.0568826089877</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6472,7 +6472,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.169188758593</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,70 +6518,70 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U30" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438285</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V31" t="n">
-        <v>377.0996507379416</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W31" t="n">
-        <v>377.0996507379416</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X31" t="n">
-        <v>149.1100998399243</v>
+        <v>181.713669452733</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1980.946859214234</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>195.3538277983405</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2741.012457539436</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.546699278356</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2367.546699278356</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>549.3683227675135</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="C34" t="n">
-        <v>380.4321398396066</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="D34" t="n">
-        <v>380.4321398396066</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="E34" t="n">
-        <v>380.4321398396066</v>
+        <v>330.4147176617877</v>
       </c>
       <c r="F34" t="n">
-        <v>380.4321398396066</v>
+        <v>183.5247701638773</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
         <v>66.5121164321834</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V34" t="n">
-        <v>666.202517612298</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W34" t="n">
-        <v>549.3683227675135</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X34" t="n">
-        <v>549.3683227675135</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y34" t="n">
-        <v>549.3683227675135</v>
+        <v>478.3278112441808</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1477.112184968822</v>
+        <v>1091.323932370578</v>
       </c>
       <c r="C35" t="n">
-        <v>1108.149668028411</v>
+        <v>722.3614154301667</v>
       </c>
       <c r="D35" t="n">
-        <v>749.8839694216604</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E35" t="n">
         <v>364.0957168234162</v>
@@ -6931,58 +6931,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y35" t="n">
-        <v>1698.50962791956</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="36">
@@ -6992,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7104,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>920.887005818185</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W37" t="n">
-        <v>920.887005818185</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X37" t="n">
-        <v>862.0164446829692</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0164446829692</v>
+        <v>445.4099384687679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1238.03887196831</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="C38" t="n">
-        <v>869.0763550278987</v>
+        <v>1236.6394815529</v>
       </c>
       <c r="D38" t="n">
-        <v>510.8106564211482</v>
+        <v>878.3737829461495</v>
       </c>
       <c r="E38" t="n">
-        <v>125.0224038229039</v>
+        <v>492.5855303479053</v>
       </c>
       <c r="F38" t="n">
-        <v>125.0224038229039</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>125.0224038229039</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
@@ -7195,31 +7195,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883009</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539438</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.243802269324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X38" t="n">
-        <v>2014.778044008244</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y38" t="n">
-        <v>1624.638712032432</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181858</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181858</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>729.2011216450122</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T40" t="n">
-        <v>549.1861555360877</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U40" t="n">
-        <v>549.1861555360877</v>
+        <v>440.098254770655</v>
       </c>
       <c r="V40" t="n">
-        <v>294.5016673302008</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="W40" t="n">
-        <v>294.5016673302008</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X40" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200353</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267231</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.03470992366</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653546</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392466</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1590.514489367197</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,37 +7505,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7611,10 +7611,10 @@
         <v>87.6824807009811</v>
       </c>
       <c r="X43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1977.407367302545</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C44" t="n">
-        <v>1608.444850362134</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D44" t="n">
-        <v>1250.179151755383</v>
+        <v>971.2814123723974</v>
       </c>
       <c r="E44" t="n">
-        <v>864.3908991571391</v>
+        <v>971.2814123723974</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>560.2955075827899</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2741.012457539437</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2367.546699278357</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.407367302545</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
@@ -7815,43 +7815,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>377.0996507379417</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W46" t="n">
-        <v>87.6824807009811</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
   </sheetData>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>67.2382049840831</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>198.4101950152003</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>204.5585635023744</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>74.76931012855356</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>7.88401062568127</v>
+        <v>66.38305545459011</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>79.02279728521563</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>234.0491352390158</v>
+        <v>264.8546020876779</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8318802275929</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>37.38049896054393</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>81.59093052713874</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>46.97568950224161</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510931</v>
+        <v>182.4585420190847</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>219.4555119577252</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,13 +22880,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>15.39452541551174</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846321</v>
+        <v>74.81755514382759</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681299</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459965</v>
+        <v>224.4472040214802</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>38.99055850514912</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>73.49127351643236</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825419</v>
+        <v>59.3465326483775</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402855</v>
+        <v>17.84535296940157</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594797</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709389</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159727</v>
+        <v>71.38234319379296</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>215.7038047660224</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753917</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637383</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>48.27134388011237</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871058</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.3343766924276</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>110.8587613400545</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>133.406242310383</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402855</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>234.3070520821567</v>
+        <v>234.3070520821565</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>270.7654067768319</v>
+        <v>319.8778913316445</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.35114925021273</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>38.35055233202226</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>228.8832021954669</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.3777201241336</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>172.8619815138575</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>163.011963778853</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>368.1343761759451</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>226.0923498002243</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>32.77294582383573</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.1573301250737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>24.96523205584816</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>94.47121094474622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>86.93069603166587</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>160.6010606436959</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>349.891036843333</v>
+        <v>92.45320224634884</v>
       </c>
     </row>
     <row r="24">
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>112.3489855517599</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>48.40916263079018</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>166.6308927084668</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>320.8996812621419</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,13 +24654,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>56.82230522778943</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>216.683932801674</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>55.47844587228425</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>66.84346944454892</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>104.5351158617507</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>24.39367950488719</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>320.8996812621418</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>50.18328106465125</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,22 +25128,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>170.8571454402543</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>163.5503731422505</v>
+        <v>58.67017993786686</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>117.1829072713161</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25371,16 +25371,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>167.4277998651735</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>321.2480601253932</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>236.6825798705072</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>41.33413282833388</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>27.70841439167242</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>317.3955842695676</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>170.1349897010378</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>27.89777649745884</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>216.6839328016734</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>124.4623873968217</v>
       </c>
       <c r="X46" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337678</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337677</v>
+        <v>417888.8482179075</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337674</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>144653.8320754295</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963041</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318746</v>
@@ -26334,28 +26334,28 @@
         <v>296136.8796318745</v>
       </c>
       <c r="I2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="J2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="K2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="L2" t="n">
         <v>296136.8796318744</v>
       </c>
       <c r="M2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="N2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="O2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="N2" t="n">
-        <v>296136.8796318747</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318745</v>
-      </c>
       <c r="P2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340649</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679087</v>
       </c>
       <c r="E3" t="n">
         <v>627134.6436336674</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136638</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004433</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>107.1921479602628</v>
+      </c>
+      <c r="C4" t="n">
+        <v>122.1898065383437</v>
+      </c>
+      <c r="D4" t="n">
         <v>137.8001180723341</v>
       </c>
-      <c r="C4" t="n">
-        <v>137.8001180723339</v>
-      </c>
-      <c r="D4" t="n">
-        <v>137.8001180723339</v>
-      </c>
       <c r="E4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061229</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.646989006123</v>
@@ -26447,13 +26447,13 @@
         <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061235</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>53719.1197790209</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55335.34872138573</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161358</v>
       </c>
-      <c r="C5" t="n">
-        <v>56985.80041161357</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56985.80041161356</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26505,10 +26505,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732619</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.0175475837</v>
+        <v>64626.86678985725</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758348</v>
+        <v>69896.83250792384</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303618</v>
+        <v>-406296.1510900091</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436579</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747608</v>
+        <v>182417.0860375241</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033054</v>
+        <v>215707.5254415215</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033054</v>
+        <v>215588.5853176536</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542798</v>
+        <v>60382.05067578089</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033057</v>
+        <v>220838.492543658</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.492543658</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>512.0768631572208</v>
+      </c>
+      <c r="C3" t="n">
+        <v>530.6136320241912</v>
+      </c>
+      <c r="D3" t="n">
         <v>548.4699409129047</v>
-      </c>
-      <c r="C3" t="n">
-        <v>548.4699409129045</v>
-      </c>
-      <c r="D3" t="n">
-        <v>548.4699409129045</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>146.8461210887086</v>
+      </c>
+      <c r="C4" t="n">
+        <v>166.7824266983284</v>
+      </c>
+      <c r="D4" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="C4" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="D4" t="n">
-        <v>187.5255871663198</v>
-      </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
@@ -26816,22 +26816,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697042</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871344</v>
       </c>
       <c r="E3" t="n">
         <v>541.3067596803934</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961972</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="E4" t="n">
         <v>643.8758682359727</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961984</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799149</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961972</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="M4" t="n">
         <v>643.8758682359727</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>139.0785066724534</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043117</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470023</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622679</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924577</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>262.6874582801973</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550074</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820368</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620014</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639161</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114192</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784857</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647909</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31870,7 +31870,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31919,16 +31919,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31937,19 +31937,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32107,7 +32107,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32156,16 +32156,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32174,19 +32174,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32344,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32393,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32411,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563588</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>1.237067698094463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764983</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868023</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788327</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504114</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915984</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406597</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781463</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>120.553424358179</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855691</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764993</v>
+        <v>5.706708427488508</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646075</v>
+        <v>7.371968606034244</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061149</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520823</v>
+        <v>18.73772222104904</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400495</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646075</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
         <v>157.2826706286436</v>
@@ -35582,13 +35582,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
         <v>157.2826706286436</v>
@@ -35819,13 +35819,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
         <v>157.2826706286436</v>
@@ -36056,13 +36056,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222663</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
         <v>157.2826706286436</v>
@@ -36293,13 +36293,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
